--- a/SRS/Trazabilidad/SRS[Alimnova]TrazabilidadRequerimientosV1.0.1.xlsx
+++ b/SRS/Trazabilidad/SRS[Alimnova]TrazabilidadRequerimientosV1.0.1.xlsx
@@ -1255,7 +1255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1421,6 +1421,39 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1428,12 +1461,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1452,6 +1479,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1517,67 +1580,7 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1887,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1900,88 +1903,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="66" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
     </row>
     <row r="2" spans="1:20" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A2" s="96"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="67" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="60"/>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="71"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="80"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="103" t="s">
+      <c r="A3" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="89" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="63"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="74"/>
     </row>
     <row r="4" spans="1:20" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="106"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="59" t="s">
         <v>213</v>
       </c>
@@ -2043,10 +2046,10 @@
       </c>
       <c r="B5" s="14">
         <f>C5/100</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="98">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="62">
+        <v>0</v>
       </c>
       <c r="D5" s="49">
         <v>0</v>
@@ -2109,7 +2112,7 @@
         <f t="shared" ref="B6:B69" si="0">C6/100</f>
         <v>2</v>
       </c>
-      <c r="C6" s="98">
+      <c r="C6" s="62">
         <v>200</v>
       </c>
       <c r="D6" s="51">
@@ -2159,7 +2162,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C7" s="98">
+      <c r="C7" s="62">
         <v>100</v>
       </c>
       <c r="D7" s="51">
@@ -2209,7 +2212,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C8" s="98">
+      <c r="C8" s="62">
         <v>100</v>
       </c>
       <c r="D8" s="51">
@@ -2259,7 +2262,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C9" s="98">
+      <c r="C9" s="62">
         <v>200</v>
       </c>
       <c r="D9" s="51">
@@ -2309,7 +2312,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C10" s="98">
+      <c r="C10" s="62">
         <v>200</v>
       </c>
       <c r="D10" s="51">
@@ -2357,10 +2360,10 @@
       </c>
       <c r="B11" s="14">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C11" s="98">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="C11" s="62">
+        <v>200</v>
       </c>
       <c r="D11" s="51">
         <v>100</v>
@@ -2409,7 +2412,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C12" s="98">
+      <c r="C12" s="62">
         <v>200</v>
       </c>
       <c r="D12" s="51">
@@ -2457,10 +2460,10 @@
       </c>
       <c r="B13" s="14">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C13" s="98">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="C13" s="62">
+        <v>200</v>
       </c>
       <c r="D13" s="51">
         <v>100</v>
@@ -2509,7 +2512,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="114">
         <v>0</v>
       </c>
       <c r="D14" s="49">
@@ -2571,10 +2574,10 @@
       </c>
       <c r="B15" s="14">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C15" s="98">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="C15" s="62">
+        <v>200</v>
       </c>
       <c r="D15" s="51">
         <v>100</v>
@@ -2621,10 +2624,10 @@
       </c>
       <c r="B16" s="14">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C16" s="98">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="C16" s="62">
+        <v>200</v>
       </c>
       <c r="D16" s="51">
         <v>100</v>
@@ -2673,7 +2676,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C17" s="98">
+      <c r="C17" s="62">
         <v>200</v>
       </c>
       <c r="D17" s="51">
@@ -2723,7 +2726,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C18" s="98">
+      <c r="C18" s="62">
         <v>200</v>
       </c>
       <c r="D18" s="51">
@@ -2773,7 +2776,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C19" s="98">
+      <c r="C19" s="62">
         <v>100</v>
       </c>
       <c r="D19" s="51">
@@ -2823,7 +2826,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C20" s="98">
+      <c r="C20" s="62">
         <v>100</v>
       </c>
       <c r="D20" s="51">
@@ -2873,7 +2876,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C21" s="98">
+      <c r="C21" s="62">
         <v>100</v>
       </c>
       <c r="D21" s="51">
@@ -2923,7 +2926,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C22" s="98">
+      <c r="C22" s="62">
         <v>100</v>
       </c>
       <c r="D22" s="51">
@@ -2973,7 +2976,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C23" s="98">
+      <c r="C23" s="62">
         <v>100</v>
       </c>
       <c r="D23" s="51">
@@ -3023,7 +3026,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="114">
         <v>0</v>
       </c>
       <c r="D24" s="49">
@@ -3085,10 +3088,10 @@
       </c>
       <c r="B25" s="14">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C25" s="98">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="C25" s="62">
+        <v>200</v>
       </c>
       <c r="D25" s="51">
         <v>100</v>
@@ -3135,10 +3138,10 @@
       </c>
       <c r="B26" s="14">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C26" s="98">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="C26" s="62">
+        <v>200</v>
       </c>
       <c r="D26" s="51">
         <v>100</v>
@@ -3187,7 +3190,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="114">
         <v>0</v>
       </c>
       <c r="D27" s="49">
@@ -3251,7 +3254,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C28" s="98">
+      <c r="C28" s="62">
         <v>100</v>
       </c>
       <c r="D28" s="51">
@@ -3301,7 +3304,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C29" s="98">
+      <c r="C29" s="62">
         <v>100</v>
       </c>
       <c r="D29" s="51">
@@ -3351,7 +3354,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C30" s="98">
+      <c r="C30" s="62">
         <v>100</v>
       </c>
       <c r="D30" s="51">
@@ -3401,7 +3404,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C31" s="98">
+      <c r="C31" s="62">
         <v>100</v>
       </c>
       <c r="D31" s="51">
@@ -3451,7 +3454,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C32" s="98">
+      <c r="C32" s="62">
         <v>100</v>
       </c>
       <c r="D32" s="51">
@@ -3501,7 +3504,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C33" s="98">
+      <c r="C33" s="62">
         <v>100</v>
       </c>
       <c r="D33" s="51">
@@ -3551,7 +3554,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C34" s="98">
+      <c r="C34" s="62">
         <v>100</v>
       </c>
       <c r="D34" s="51">
@@ -3601,7 +3604,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C35" s="98">
+      <c r="C35" s="62">
         <v>100</v>
       </c>
       <c r="D35" s="51">
@@ -3651,7 +3654,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C36" s="98">
+      <c r="C36" s="62">
         <v>100</v>
       </c>
       <c r="D36" s="51">
@@ -3701,7 +3704,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C37" s="98">
+      <c r="C37" s="62">
         <v>100</v>
       </c>
       <c r="D37" s="51">
@@ -3751,7 +3754,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C38" s="98">
+      <c r="C38" s="62">
         <v>100</v>
       </c>
       <c r="D38" s="51">
@@ -3801,7 +3804,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C39" s="98">
+      <c r="C39" s="62">
         <v>100</v>
       </c>
       <c r="D39" s="51">
@@ -3851,7 +3854,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C40" s="98">
+      <c r="C40" s="62">
         <v>100</v>
       </c>
       <c r="D40" s="51">
@@ -3901,7 +3904,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C41" s="98">
+      <c r="C41" s="62">
         <v>100</v>
       </c>
       <c r="D41" s="51">
@@ -3951,7 +3954,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C42" s="98">
+      <c r="C42" s="62">
         <v>100</v>
       </c>
       <c r="D42" s="51">
@@ -4001,7 +4004,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C43" s="98">
+      <c r="C43" s="62">
         <v>100</v>
       </c>
       <c r="D43" s="51">
@@ -4051,7 +4054,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C44" s="49">
+      <c r="C44" s="114">
         <v>0</v>
       </c>
       <c r="D44" s="49">
@@ -4115,7 +4118,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C45" s="98">
+      <c r="C45" s="62">
         <v>100</v>
       </c>
       <c r="D45" s="51">
@@ -4165,7 +4168,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C46" s="98">
+      <c r="C46" s="62">
         <v>100</v>
       </c>
       <c r="D46" s="51">
@@ -4215,7 +4218,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C47" s="98">
+      <c r="C47" s="62">
         <v>100</v>
       </c>
       <c r="D47" s="51">
@@ -4265,7 +4268,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C48" s="98">
+      <c r="C48" s="62">
         <v>100</v>
       </c>
       <c r="D48" s="51">
@@ -4315,7 +4318,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C49" s="49">
+      <c r="C49" s="114">
         <v>0</v>
       </c>
       <c r="D49" s="49">
@@ -4379,7 +4382,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C50" s="98">
+      <c r="C50" s="62">
         <v>100</v>
       </c>
       <c r="D50" s="51">
@@ -4429,7 +4432,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C51" s="98">
+      <c r="C51" s="62">
         <v>100</v>
       </c>
       <c r="D51" s="51">
@@ -4479,7 +4482,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C52" s="98">
+      <c r="C52" s="62">
         <v>100</v>
       </c>
       <c r="D52" s="51">
@@ -4529,7 +4532,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C53" s="98">
+      <c r="C53" s="62">
         <v>100</v>
       </c>
       <c r="D53" s="51">
@@ -4579,7 +4582,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C54" s="98">
+      <c r="C54" s="62">
         <v>100</v>
       </c>
       <c r="D54" s="51">
@@ -4629,7 +4632,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C55" s="98">
+      <c r="C55" s="62">
         <v>100</v>
       </c>
       <c r="D55" s="51">
@@ -4679,7 +4682,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C56" s="49">
+      <c r="C56" s="114">
         <v>0</v>
       </c>
       <c r="D56" s="49">
@@ -4743,7 +4746,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C57" s="98">
+      <c r="C57" s="62">
         <v>100</v>
       </c>
       <c r="D57" s="51">
@@ -4793,7 +4796,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C58" s="98">
+      <c r="C58" s="62">
         <v>100</v>
       </c>
       <c r="D58" s="51">
@@ -4843,7 +4846,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C59" s="98">
+      <c r="C59" s="62">
         <v>100</v>
       </c>
       <c r="D59" s="51">
@@ -4893,7 +4896,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C60" s="98">
+      <c r="C60" s="62">
         <v>100</v>
       </c>
       <c r="D60" s="51">
@@ -4943,7 +4946,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C61" s="98">
+      <c r="C61" s="62">
         <v>200</v>
       </c>
       <c r="D61" s="51">
@@ -4993,7 +4996,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C62" s="98">
+      <c r="C62" s="62">
         <v>200</v>
       </c>
       <c r="D62" s="51">
@@ -5043,7 +5046,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C63" s="49">
+      <c r="C63" s="114">
         <v>0</v>
       </c>
       <c r="D63" s="49">
@@ -5107,7 +5110,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C64" s="49">
+      <c r="C64" s="114">
         <v>0</v>
       </c>
       <c r="D64" s="49">
@@ -5171,7 +5174,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C65" s="98">
+      <c r="C65" s="62">
         <v>100</v>
       </c>
       <c r="D65" s="51">
@@ -5221,7 +5224,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C66" s="98">
+      <c r="C66" s="62">
         <v>100</v>
       </c>
       <c r="D66" s="51">
@@ -5271,7 +5274,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C67" s="98">
+      <c r="C67" s="62">
         <v>100</v>
       </c>
       <c r="D67" s="51">
@@ -5321,7 +5324,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C68" s="98">
+      <c r="C68" s="62">
         <v>100</v>
       </c>
       <c r="D68" s="51">
@@ -5369,10 +5372,10 @@
       </c>
       <c r="B69" s="14">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C69" s="98">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="C69" s="62">
+        <v>200</v>
       </c>
       <c r="D69" s="51">
         <v>100</v>
@@ -5421,7 +5424,7 @@
         <f t="shared" ref="B70:B125" si="2">C70/100</f>
         <v>2</v>
       </c>
-      <c r="C70" s="99">
+      <c r="C70" s="63">
         <v>200</v>
       </c>
       <c r="D70" s="51">
@@ -5471,7 +5474,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C71" s="99">
+      <c r="C71" s="63">
         <v>100</v>
       </c>
       <c r="D71" s="51">
@@ -5521,7 +5524,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C72" s="98">
+      <c r="C72" s="62">
         <v>100</v>
       </c>
       <c r="D72" s="51">
@@ -5571,7 +5574,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C73" s="98">
+      <c r="C73" s="62">
         <v>200</v>
       </c>
       <c r="D73" s="51">
@@ -5621,7 +5624,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C74" s="98">
+      <c r="C74" s="62">
         <v>200</v>
       </c>
       <c r="D74" s="51">
@@ -5671,7 +5674,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C75" s="98">
+      <c r="C75" s="62">
         <v>200</v>
       </c>
       <c r="D75" s="51">
@@ -5721,7 +5724,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C76" s="49">
+      <c r="C76" s="114">
         <v>0</v>
       </c>
       <c r="D76" s="49">
@@ -5785,7 +5788,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C77" s="49">
+      <c r="C77" s="114">
         <v>0</v>
       </c>
       <c r="D77" s="49">
@@ -5849,7 +5852,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C78" s="49">
+      <c r="C78" s="114">
         <v>0</v>
       </c>
       <c r="D78" s="49">
@@ -5913,7 +5916,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C79" s="49">
+      <c r="C79" s="114">
         <v>0</v>
       </c>
       <c r="D79" s="49">
@@ -5977,7 +5980,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C80" s="49">
+      <c r="C80" s="114">
         <v>0</v>
       </c>
       <c r="D80" s="49">
@@ -6041,7 +6044,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C81" s="98">
+      <c r="C81" s="62">
         <v>200</v>
       </c>
       <c r="D81" s="51">
@@ -6091,7 +6094,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C82" s="98">
+      <c r="C82" s="62">
         <v>200</v>
       </c>
       <c r="D82" s="51">
@@ -6141,7 +6144,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C83" s="98">
+      <c r="C83" s="62">
         <v>200</v>
       </c>
       <c r="D83" s="51">
@@ -6191,7 +6194,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C84" s="98">
+      <c r="C84" s="62">
         <v>100</v>
       </c>
       <c r="D84" s="51">
@@ -6241,7 +6244,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C85" s="98">
+      <c r="C85" s="62">
         <v>100</v>
       </c>
       <c r="D85" s="51">
@@ -6291,7 +6294,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C86" s="98">
+      <c r="C86" s="62">
         <v>100</v>
       </c>
       <c r="D86" s="51">
@@ -6341,7 +6344,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C87" s="49">
+      <c r="C87" s="114">
         <v>0</v>
       </c>
       <c r="D87" s="49">
@@ -6405,7 +6408,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C88" s="98">
+      <c r="C88" s="62">
         <v>100</v>
       </c>
       <c r="D88" s="51">
@@ -6455,7 +6458,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C89" s="98">
+      <c r="C89" s="62">
         <v>200</v>
       </c>
       <c r="D89" s="51">
@@ -6505,7 +6508,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C90" s="98">
+      <c r="C90" s="62">
         <v>200</v>
       </c>
       <c r="D90" s="51">
@@ -6555,7 +6558,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C91" s="49">
+      <c r="C91" s="114">
         <v>0</v>
       </c>
       <c r="D91" s="49">
@@ -6619,7 +6622,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C92" s="98">
+      <c r="C92" s="62">
         <v>100</v>
       </c>
       <c r="D92" s="51">
@@ -6669,7 +6672,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C93" s="98">
+      <c r="C93" s="62">
         <v>100</v>
       </c>
       <c r="D93" s="51">
@@ -6719,7 +6722,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C94" s="98">
+      <c r="C94" s="62">
         <v>100</v>
       </c>
       <c r="D94" s="51">
@@ -6769,7 +6772,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C95" s="98">
+      <c r="C95" s="62">
         <v>100</v>
       </c>
       <c r="D95" s="51">
@@ -6819,7 +6822,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C96" s="98">
+      <c r="C96" s="62">
         <v>100</v>
       </c>
       <c r="D96" s="51">
@@ -6869,7 +6872,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C97" s="98">
+      <c r="C97" s="62">
         <v>100</v>
       </c>
       <c r="D97" s="51">
@@ -6919,7 +6922,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C98" s="98">
+      <c r="C98" s="62">
         <v>100</v>
       </c>
       <c r="D98" s="51">
@@ -6969,7 +6972,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C99" s="98">
+      <c r="C99" s="62">
         <v>100</v>
       </c>
       <c r="D99" s="51">
@@ -7019,7 +7022,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C100" s="98">
+      <c r="C100" s="62">
         <v>100</v>
       </c>
       <c r="D100" s="51">
@@ -7069,7 +7072,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C101" s="98">
+      <c r="C101" s="62">
         <v>200</v>
       </c>
       <c r="D101" s="51">
@@ -7119,7 +7122,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C102" s="98">
+      <c r="C102" s="62">
         <v>100</v>
       </c>
       <c r="D102" s="51">
@@ -7169,7 +7172,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C103" s="98">
+      <c r="C103" s="62">
         <v>100</v>
       </c>
       <c r="D103" s="51">
@@ -7219,7 +7222,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C104" s="98">
+      <c r="C104" s="62">
         <v>100</v>
       </c>
       <c r="D104" s="51">
@@ -7269,7 +7272,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C105" s="98">
+      <c r="C105" s="62">
         <v>100</v>
       </c>
       <c r="D105" s="51">
@@ -7319,7 +7322,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C106" s="98">
+      <c r="C106" s="62">
         <v>100</v>
       </c>
       <c r="D106" s="51">
@@ -7369,7 +7372,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C107" s="98">
+      <c r="C107" s="62">
         <v>100</v>
       </c>
       <c r="D107" s="51">
@@ -7419,7 +7422,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C108" s="98">
+      <c r="C108" s="62">
         <v>0</v>
       </c>
       <c r="D108" s="49">
@@ -7483,7 +7486,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C109" s="98">
+      <c r="C109" s="62">
         <v>0</v>
       </c>
       <c r="D109" s="49">
@@ -7547,7 +7550,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C110" s="98">
+      <c r="C110" s="62">
         <v>0</v>
       </c>
       <c r="D110" s="49">
@@ -7611,7 +7614,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C111" s="98">
+      <c r="C111" s="62">
         <v>0</v>
       </c>
       <c r="D111" s="49">
@@ -7675,7 +7678,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C112" s="98">
+      <c r="C112" s="62">
         <v>0</v>
       </c>
       <c r="D112" s="49">
@@ -7739,7 +7742,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C113" s="98">
+      <c r="C113" s="62">
         <v>0</v>
       </c>
       <c r="D113" s="49">
@@ -7803,7 +7806,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C114" s="98">
+      <c r="C114" s="62">
         <v>0</v>
       </c>
       <c r="D114" s="49">
@@ -7867,7 +7870,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C115" s="98">
+      <c r="C115" s="62">
         <v>0</v>
       </c>
       <c r="D115" s="49">
@@ -7931,7 +7934,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C116" s="98">
+      <c r="C116" s="62">
         <v>0</v>
       </c>
       <c r="D116" s="49">
@@ -7995,7 +7998,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C117" s="98">
+      <c r="C117" s="62">
         <v>0</v>
       </c>
       <c r="D117" s="49">
@@ -8059,7 +8062,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C118" s="98">
+      <c r="C118" s="62">
         <v>0</v>
       </c>
       <c r="D118" s="49">
@@ -8123,7 +8126,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C119" s="98">
+      <c r="C119" s="62">
         <v>100</v>
       </c>
       <c r="D119" s="51">
@@ -8173,7 +8176,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C120" s="98">
+      <c r="C120" s="62">
         <v>0</v>
       </c>
       <c r="D120" s="49">
@@ -8237,7 +8240,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C121" s="98">
+      <c r="C121" s="62">
         <v>200</v>
       </c>
       <c r="D121" s="51">
@@ -8289,7 +8292,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C122" s="98">
+      <c r="C122" s="62">
         <v>200</v>
       </c>
       <c r="D122" s="51">
@@ -8339,7 +8342,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C123" s="98">
+      <c r="C123" s="62">
         <v>0</v>
       </c>
       <c r="D123" s="49">
@@ -8403,7 +8406,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C124" s="98">
+      <c r="C124" s="62">
         <v>0</v>
       </c>
       <c r="D124" s="49">
@@ -8451,10 +8454,10 @@
       </c>
       <c r="B125" s="14">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="C125" s="98">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="C125" s="62">
+        <v>200</v>
       </c>
       <c r="D125" s="51">
         <v>100</v>
@@ -8496,30 +8499,30 @@
       <c r="T125" s="53"/>
     </row>
     <row r="126" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A126" s="104" t="s">
+      <c r="A126" s="87" t="s">
         <v>215</v>
       </c>
-      <c r="B126" s="105"/>
-      <c r="C126" s="113">
+      <c r="B126" s="88"/>
+      <c r="C126" s="66">
         <f>SUM(C5:C125)</f>
-        <v>12800</v>
-      </c>
-      <c r="D126" s="107" t="s">
+        <v>11900</v>
+      </c>
+      <c r="D126" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="E126" s="111"/>
-      <c r="F126" s="108"/>
+      <c r="E126" s="68"/>
+      <c r="F126" s="69"/>
       <c r="G126" s="49">
         <f>SUM(G5:G125)</f>
         <v>1640</v>
       </c>
-      <c r="H126" s="109" t="s">
+      <c r="H126" s="91" t="s">
         <v>218</v>
       </c>
-      <c r="I126" s="110"/>
-      <c r="J126" s="112">
+      <c r="I126" s="92"/>
+      <c r="J126" s="65">
         <f>(G126*100)/C126</f>
-        <v>12.8125</v>
+        <v>13.781512605042018</v>
       </c>
       <c r="K126" s="49"/>
       <c r="L126" s="53"/>
@@ -8533,37 +8536,37 @@
       <c r="T126" s="53"/>
     </row>
     <row r="127" spans="1:20" ht="27.75" thickTop="1" thickBot="1">
-      <c r="A127" s="64" t="s">
+      <c r="A127" s="70" t="s">
         <v>0</v>
       </c>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
-      <c r="D127" s="61" t="s">
+      <c r="D127" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="E127" s="62"/>
-      <c r="F127" s="62"/>
-      <c r="G127" s="62"/>
-      <c r="H127" s="62"/>
-      <c r="I127" s="62"/>
-      <c r="J127" s="62"/>
-      <c r="K127" s="62"/>
-      <c r="L127" s="62"/>
-      <c r="M127" s="62"/>
-      <c r="N127" s="62"/>
-      <c r="O127" s="62"/>
-      <c r="P127" s="62"/>
-      <c r="Q127" s="62"/>
-      <c r="R127" s="62"/>
-      <c r="S127" s="62"/>
-      <c r="T127" s="63"/>
+      <c r="E127" s="73"/>
+      <c r="F127" s="73"/>
+      <c r="G127" s="73"/>
+      <c r="H127" s="73"/>
+      <c r="I127" s="73"/>
+      <c r="J127" s="73"/>
+      <c r="K127" s="73"/>
+      <c r="L127" s="73"/>
+      <c r="M127" s="73"/>
+      <c r="N127" s="73"/>
+      <c r="O127" s="73"/>
+      <c r="P127" s="73"/>
+      <c r="Q127" s="73"/>
+      <c r="R127" s="73"/>
+      <c r="S127" s="73"/>
+      <c r="T127" s="74"/>
     </row>
     <row r="128" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A128" s="65"/>
-      <c r="B128" s="93" t="s">
+      <c r="A128" s="71"/>
+      <c r="B128" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="C128" s="93" t="s">
+      <c r="C128" s="61" t="s">
         <v>213</v>
       </c>
       <c r="D128" s="42" t="s">
@@ -9843,7 +9846,7 @@
         <v>189</v>
       </c>
       <c r="B156" s="45"/>
-      <c r="C156" s="100"/>
+      <c r="C156" s="64"/>
       <c r="D156" s="51">
         <v>100</v>
       </c>
@@ -9889,7 +9892,7 @@
         <v>190</v>
       </c>
       <c r="B157" s="45"/>
-      <c r="C157" s="100"/>
+      <c r="C157" s="64"/>
       <c r="D157" s="51">
         <v>100</v>
       </c>
@@ -9935,7 +9938,7 @@
         <v>191</v>
       </c>
       <c r="B158" s="45"/>
-      <c r="C158" s="100"/>
+      <c r="C158" s="64"/>
       <c r="D158" s="51">
         <v>100</v>
       </c>
@@ -9981,7 +9984,7 @@
         <v>192</v>
       </c>
       <c r="B159" s="45"/>
-      <c r="C159" s="100"/>
+      <c r="C159" s="64"/>
       <c r="D159" s="51">
         <v>100</v>
       </c>
@@ -10519,33 +10522,33 @@
   <sheetData>
     <row r="1" spans="1:32" ht="30" thickTop="1" thickBot="1">
       <c r="A1" s="29"/>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="97" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="93" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="74"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="95"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
@@ -10557,7 +10560,7 @@
     </row>
     <row r="2" spans="1:32" ht="29.25" thickBot="1">
       <c r="A2" s="29"/>
-      <c r="B2" s="77"/>
+      <c r="B2" s="98"/>
       <c r="C2" s="22" t="s">
         <v>132</v>
       </c>
@@ -10577,15 +10580,15 @@
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -10597,7 +10600,7 @@
     </row>
     <row r="3" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="29"/>
-      <c r="B3" s="77"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="11" t="s">
         <v>163</v>
       </c>
@@ -10666,7 +10669,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="99" t="s">
         <v>165</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -10696,7 +10699,7 @@
       <c r="X4" s="31"/>
     </row>
     <row r="5" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="79"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
@@ -10768,7 +10771,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="79"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
@@ -10840,7 +10843,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="79"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
@@ -10912,7 +10915,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="79"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
@@ -10984,7 +10987,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="79"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
@@ -11056,7 +11059,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="79"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
@@ -11128,7 +11131,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="79"/>
+      <c r="A11" s="100"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
@@ -11200,7 +11203,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="79"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
@@ -11272,7 +11275,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="79"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
@@ -11300,7 +11303,7 @@
       <c r="X13" s="34"/>
     </row>
     <row r="14" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="79"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="4" t="s">
         <v>197</v>
       </c>
@@ -11372,7 +11375,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="79"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
@@ -11444,7 +11447,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="79"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="4" t="s">
         <v>198</v>
       </c>
@@ -11516,7 +11519,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="79"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
@@ -11588,7 +11591,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="79"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
@@ -11660,7 +11663,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="79"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -11732,7 +11735,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="79"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
@@ -11804,7 +11807,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="79"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
@@ -11876,7 +11879,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="79"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
@@ -11948,7 +11951,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="79"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="4" t="s">
         <v>30</v>
       </c>
@@ -11976,7 +11979,7 @@
       <c r="X23" s="34"/>
     </row>
     <row r="24" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="79"/>
+      <c r="A24" s="100"/>
       <c r="B24" s="4" t="s">
         <v>31</v>
       </c>
@@ -12048,7 +12051,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="79"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="4" t="s">
         <v>32</v>
       </c>
@@ -12120,7 +12123,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="79"/>
+      <c r="A26" s="100"/>
       <c r="B26" s="4" t="s">
         <v>33</v>
       </c>
@@ -12148,7 +12151,7 @@
       <c r="X26" s="34"/>
     </row>
     <row r="27" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="79"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="4" t="s">
         <v>34</v>
       </c>
@@ -12220,7 +12223,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="79"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
@@ -12292,7 +12295,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="79"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="4" t="s">
         <v>36</v>
       </c>
@@ -12364,7 +12367,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="79"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="4" t="s">
         <v>37</v>
       </c>
@@ -12436,7 +12439,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="79"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="4" t="s">
         <v>38</v>
       </c>
@@ -12508,7 +12511,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="79"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="4" t="s">
         <v>39</v>
       </c>
@@ -12580,7 +12583,7 @@
       </c>
     </row>
     <row r="33" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="79"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="4" t="s">
         <v>40</v>
       </c>
@@ -12652,7 +12655,7 @@
       </c>
     </row>
     <row r="34" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="79"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="4" t="s">
         <v>41</v>
       </c>
@@ -12724,7 +12727,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="79"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="4" t="s">
         <v>42</v>
       </c>
@@ -12796,7 +12799,7 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="79"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
@@ -12868,7 +12871,7 @@
       </c>
     </row>
     <row r="37" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="79"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="4" t="s">
         <v>44</v>
       </c>
@@ -12940,7 +12943,7 @@
       </c>
     </row>
     <row r="38" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A38" s="79"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="4" t="s">
         <v>45</v>
       </c>
@@ -13012,7 +13015,7 @@
       </c>
     </row>
     <row r="39" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A39" s="79"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="4" t="s">
         <v>46</v>
       </c>
@@ -13084,7 +13087,7 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="79"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="4" t="s">
         <v>47</v>
       </c>
@@ -13156,7 +13159,7 @@
       </c>
     </row>
     <row r="41" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A41" s="79"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="4" t="s">
         <v>199</v>
       </c>
@@ -13228,7 +13231,7 @@
       </c>
     </row>
     <row r="42" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A42" s="79"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="4" t="s">
         <v>49</v>
       </c>
@@ -13300,7 +13303,7 @@
       </c>
     </row>
     <row r="43" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A43" s="79"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="4" t="s">
         <v>50</v>
       </c>
@@ -13328,7 +13331,7 @@
       <c r="X43" s="40"/>
     </row>
     <row r="44" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="79"/>
+      <c r="A44" s="100"/>
       <c r="B44" s="4" t="s">
         <v>51</v>
       </c>
@@ -13400,7 +13403,7 @@
       </c>
     </row>
     <row r="45" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A45" s="79"/>
+      <c r="A45" s="100"/>
       <c r="B45" s="4" t="s">
         <v>52</v>
       </c>
@@ -13472,7 +13475,7 @@
       </c>
     </row>
     <row r="46" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A46" s="79"/>
+      <c r="A46" s="100"/>
       <c r="B46" s="4" t="s">
         <v>53</v>
       </c>
@@ -13544,7 +13547,7 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A47" s="79"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="4" t="s">
         <v>54</v>
       </c>
@@ -13616,7 +13619,7 @@
       </c>
     </row>
     <row r="48" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A48" s="79"/>
+      <c r="A48" s="100"/>
       <c r="B48" s="4" t="s">
         <v>55</v>
       </c>
@@ -13644,7 +13647,7 @@
       <c r="X48" s="31"/>
     </row>
     <row r="49" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A49" s="79"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="4" t="s">
         <v>56</v>
       </c>
@@ -13716,7 +13719,7 @@
       </c>
     </row>
     <row r="50" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A50" s="79"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="4" t="s">
         <v>57</v>
       </c>
@@ -13788,7 +13791,7 @@
       </c>
     </row>
     <row r="51" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A51" s="79"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="4" t="s">
         <v>200</v>
       </c>
@@ -13860,7 +13863,7 @@
       </c>
     </row>
     <row r="52" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A52" s="79"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="4" t="s">
         <v>59</v>
       </c>
@@ -13932,7 +13935,7 @@
       </c>
     </row>
     <row r="53" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A53" s="79"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="4" t="s">
         <v>60</v>
       </c>
@@ -14004,7 +14007,7 @@
       </c>
     </row>
     <row r="54" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A54" s="79"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="4" t="s">
         <v>61</v>
       </c>
@@ -14076,7 +14079,7 @@
       </c>
     </row>
     <row r="55" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A55" s="79"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="4" t="s">
         <v>62</v>
       </c>
@@ -14104,7 +14107,7 @@
       <c r="X55" s="31"/>
     </row>
     <row r="56" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A56" s="79"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="4" t="s">
         <v>63</v>
       </c>
@@ -14176,7 +14179,7 @@
       </c>
     </row>
     <row r="57" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A57" s="79"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="4" t="s">
         <v>64</v>
       </c>
@@ -14248,7 +14251,7 @@
       </c>
     </row>
     <row r="58" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A58" s="79"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="4" t="s">
         <v>65</v>
       </c>
@@ -14320,7 +14323,7 @@
       </c>
     </row>
     <row r="59" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A59" s="79"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="4" t="s">
         <v>66</v>
       </c>
@@ -14392,7 +14395,7 @@
       </c>
     </row>
     <row r="60" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A60" s="79"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="4" t="s">
         <v>67</v>
       </c>
@@ -14464,7 +14467,7 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="79"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="4" t="s">
         <v>68</v>
       </c>
@@ -14536,7 +14539,7 @@
       </c>
     </row>
     <row r="62" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="79"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="4" t="s">
         <v>69</v>
       </c>
@@ -14564,7 +14567,7 @@
       <c r="X62" s="31"/>
     </row>
     <row r="63" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A63" s="79"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="4" t="s">
         <v>70</v>
       </c>
@@ -14592,7 +14595,7 @@
       <c r="X63" s="31"/>
     </row>
     <row r="64" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A64" s="79"/>
+      <c r="A64" s="100"/>
       <c r="B64" s="4" t="s">
         <v>201</v>
       </c>
@@ -14664,7 +14667,7 @@
       </c>
     </row>
     <row r="65" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A65" s="79"/>
+      <c r="A65" s="100"/>
       <c r="B65" s="4" t="s">
         <v>72</v>
       </c>
@@ -14736,7 +14739,7 @@
       </c>
     </row>
     <row r="66" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A66" s="79"/>
+      <c r="A66" s="100"/>
       <c r="B66" s="4" t="s">
         <v>73</v>
       </c>
@@ -14808,7 +14811,7 @@
       </c>
     </row>
     <row r="67" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A67" s="79"/>
+      <c r="A67" s="100"/>
       <c r="B67" s="4" t="s">
         <v>74</v>
       </c>
@@ -14880,7 +14883,7 @@
       </c>
     </row>
     <row r="68" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A68" s="79"/>
+      <c r="A68" s="100"/>
       <c r="B68" s="4" t="s">
         <v>75</v>
       </c>
@@ -14952,7 +14955,7 @@
       </c>
     </row>
     <row r="69" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A69" s="79"/>
+      <c r="A69" s="100"/>
       <c r="B69" s="5" t="s">
         <v>76</v>
       </c>
@@ -15024,7 +15027,7 @@
       </c>
     </row>
     <row r="70" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A70" s="79"/>
+      <c r="A70" s="100"/>
       <c r="B70" s="5" t="s">
         <v>77</v>
       </c>
@@ -15096,7 +15099,7 @@
       </c>
     </row>
     <row r="71" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A71" s="79"/>
+      <c r="A71" s="100"/>
       <c r="B71" s="5" t="s">
         <v>78</v>
       </c>
@@ -15128,7 +15131,7 @@
       <c r="X71" s="32"/>
     </row>
     <row r="72" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="79"/>
+      <c r="A72" s="100"/>
       <c r="B72" s="5" t="s">
         <v>79</v>
       </c>
@@ -15160,7 +15163,7 @@
       <c r="X72" s="32"/>
     </row>
     <row r="73" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="79"/>
+      <c r="A73" s="100"/>
       <c r="B73" s="5" t="s">
         <v>80</v>
       </c>
@@ -15192,7 +15195,7 @@
       <c r="X73" s="32"/>
     </row>
     <row r="74" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A74" s="79"/>
+      <c r="A74" s="100"/>
       <c r="B74" s="5" t="s">
         <v>81</v>
       </c>
@@ -15224,7 +15227,7 @@
       <c r="X74" s="32"/>
     </row>
     <row r="75" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="79"/>
+      <c r="A75" s="100"/>
       <c r="B75" s="5" t="s">
         <v>82</v>
       </c>
@@ -15252,7 +15255,7 @@
       <c r="X75" s="31"/>
     </row>
     <row r="76" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="79"/>
+      <c r="A76" s="100"/>
       <c r="B76" s="5" t="s">
         <v>83</v>
       </c>
@@ -15280,7 +15283,7 @@
       <c r="X76" s="31"/>
     </row>
     <row r="77" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A77" s="79"/>
+      <c r="A77" s="100"/>
       <c r="B77" s="5" t="s">
         <v>84</v>
       </c>
@@ -15308,7 +15311,7 @@
       <c r="X77" s="31"/>
     </row>
     <row r="78" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A78" s="79"/>
+      <c r="A78" s="100"/>
       <c r="B78" s="5" t="s">
         <v>85</v>
       </c>
@@ -15336,7 +15339,7 @@
       <c r="X78" s="31"/>
     </row>
     <row r="79" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A79" s="79"/>
+      <c r="A79" s="100"/>
       <c r="B79" s="5" t="s">
         <v>86</v>
       </c>
@@ -15364,7 +15367,7 @@
       <c r="X79" s="31"/>
     </row>
     <row r="80" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A80" s="79"/>
+      <c r="A80" s="100"/>
       <c r="B80" s="5" t="s">
         <v>87</v>
       </c>
@@ -15394,7 +15397,7 @@
       <c r="X80" s="32"/>
     </row>
     <row r="81" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A81" s="79"/>
+      <c r="A81" s="100"/>
       <c r="B81" s="5" t="s">
         <v>202</v>
       </c>
@@ -15424,7 +15427,7 @@
       <c r="X81" s="32"/>
     </row>
     <row r="82" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A82" s="79"/>
+      <c r="A82" s="100"/>
       <c r="B82" s="5" t="s">
         <v>89</v>
       </c>
@@ -15456,7 +15459,7 @@
       <c r="X82" s="32"/>
     </row>
     <row r="83" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A83" s="79"/>
+      <c r="A83" s="100"/>
       <c r="B83" s="5" t="s">
         <v>90</v>
       </c>
@@ -15486,7 +15489,7 @@
       <c r="X83" s="32"/>
     </row>
     <row r="84" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A84" s="79"/>
+      <c r="A84" s="100"/>
       <c r="B84" s="5" t="s">
         <v>91</v>
       </c>
@@ -15516,7 +15519,7 @@
       <c r="X84" s="32"/>
     </row>
     <row r="85" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A85" s="79"/>
+      <c r="A85" s="100"/>
       <c r="B85" s="5" t="s">
         <v>92</v>
       </c>
@@ -15548,7 +15551,7 @@
       <c r="X85" s="32"/>
     </row>
     <row r="86" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A86" s="79"/>
+      <c r="A86" s="100"/>
       <c r="B86" s="5" t="s">
         <v>93</v>
       </c>
@@ -15576,7 +15579,7 @@
       <c r="X86" s="31"/>
     </row>
     <row r="87" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A87" s="79"/>
+      <c r="A87" s="100"/>
       <c r="B87" s="5" t="s">
         <v>94</v>
       </c>
@@ -15608,7 +15611,7 @@
       <c r="X87" s="32"/>
     </row>
     <row r="88" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A88" s="79"/>
+      <c r="A88" s="100"/>
       <c r="B88" s="5" t="s">
         <v>95</v>
       </c>
@@ -15640,7 +15643,7 @@
       <c r="X88" s="32"/>
     </row>
     <row r="89" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A89" s="79"/>
+      <c r="A89" s="100"/>
       <c r="B89" s="5" t="s">
         <v>96</v>
       </c>
@@ -15676,7 +15679,7 @@
       <c r="X89" s="32"/>
     </row>
     <row r="90" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A90" s="79"/>
+      <c r="A90" s="100"/>
       <c r="B90" s="5" t="s">
         <v>97</v>
       </c>
@@ -15704,7 +15707,7 @@
       <c r="X90" s="31"/>
     </row>
     <row r="91" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A91" s="79"/>
+      <c r="A91" s="100"/>
       <c r="B91" s="5" t="s">
         <v>98</v>
       </c>
@@ -15776,7 +15779,7 @@
       </c>
     </row>
     <row r="92" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A92" s="79"/>
+      <c r="A92" s="100"/>
       <c r="B92" s="5" t="s">
         <v>99</v>
       </c>
@@ -15848,7 +15851,7 @@
       </c>
     </row>
     <row r="93" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A93" s="79"/>
+      <c r="A93" s="100"/>
       <c r="B93" s="5" t="s">
         <v>100</v>
       </c>
@@ -15920,7 +15923,7 @@
       </c>
     </row>
     <row r="94" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A94" s="79"/>
+      <c r="A94" s="100"/>
       <c r="B94" s="5" t="s">
         <v>101</v>
       </c>
@@ -15992,7 +15995,7 @@
       </c>
     </row>
     <row r="95" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A95" s="79"/>
+      <c r="A95" s="100"/>
       <c r="B95" s="5" t="s">
         <v>102</v>
       </c>
@@ -16064,7 +16067,7 @@
       </c>
     </row>
     <row r="96" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A96" s="79"/>
+      <c r="A96" s="100"/>
       <c r="B96" s="5" t="s">
         <v>103</v>
       </c>
@@ -16136,7 +16139,7 @@
       </c>
     </row>
     <row r="97" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A97" s="79"/>
+      <c r="A97" s="100"/>
       <c r="B97" s="5" t="s">
         <v>104</v>
       </c>
@@ -16208,7 +16211,7 @@
       </c>
     </row>
     <row r="98" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A98" s="79"/>
+      <c r="A98" s="100"/>
       <c r="B98" s="5" t="s">
         <v>105</v>
       </c>
@@ -16280,7 +16283,7 @@
       </c>
     </row>
     <row r="99" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A99" s="79"/>
+      <c r="A99" s="100"/>
       <c r="B99" s="5" t="s">
         <v>106</v>
       </c>
@@ -16352,7 +16355,7 @@
       </c>
     </row>
     <row r="100" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A100" s="79"/>
+      <c r="A100" s="100"/>
       <c r="B100" s="5" t="s">
         <v>107</v>
       </c>
@@ -16424,7 +16427,7 @@
       </c>
     </row>
     <row r="101" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A101" s="79"/>
+      <c r="A101" s="100"/>
       <c r="B101" s="5" t="s">
         <v>108</v>
       </c>
@@ -16496,7 +16499,7 @@
       </c>
     </row>
     <row r="102" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A102" s="79"/>
+      <c r="A102" s="100"/>
       <c r="B102" s="5" t="s">
         <v>109</v>
       </c>
@@ -16568,7 +16571,7 @@
       </c>
     </row>
     <row r="103" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A103" s="79"/>
+      <c r="A103" s="100"/>
       <c r="B103" s="5" t="s">
         <v>110</v>
       </c>
@@ -16640,7 +16643,7 @@
       </c>
     </row>
     <row r="104" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A104" s="79"/>
+      <c r="A104" s="100"/>
       <c r="B104" s="5" t="s">
         <v>111</v>
       </c>
@@ -16712,7 +16715,7 @@
       </c>
     </row>
     <row r="105" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A105" s="79"/>
+      <c r="A105" s="100"/>
       <c r="B105" s="5" t="s">
         <v>112</v>
       </c>
@@ -16740,7 +16743,7 @@
       <c r="X105" s="31"/>
     </row>
     <row r="106" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A106" s="79"/>
+      <c r="A106" s="100"/>
       <c r="B106" s="5" t="s">
         <v>113</v>
       </c>
@@ -16812,7 +16815,7 @@
       </c>
     </row>
     <row r="107" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A107" s="79"/>
+      <c r="A107" s="100"/>
       <c r="B107" s="5" t="s">
         <v>114</v>
       </c>
@@ -16840,7 +16843,7 @@
       <c r="X107" s="31"/>
     </row>
     <row r="108" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A108" s="79"/>
+      <c r="A108" s="100"/>
       <c r="B108" s="5" t="s">
         <v>115</v>
       </c>
@@ -16868,7 +16871,7 @@
       <c r="X108" s="31"/>
     </row>
     <row r="109" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A109" s="79"/>
+      <c r="A109" s="100"/>
       <c r="B109" s="5" t="s">
         <v>116</v>
       </c>
@@ -16896,7 +16899,7 @@
       <c r="X109" s="31"/>
     </row>
     <row r="110" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A110" s="79"/>
+      <c r="A110" s="100"/>
       <c r="B110" s="5" t="s">
         <v>117</v>
       </c>
@@ -16924,7 +16927,7 @@
       <c r="X110" s="31"/>
     </row>
     <row r="111" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A111" s="79"/>
+      <c r="A111" s="100"/>
       <c r="B111" s="5" t="s">
         <v>118</v>
       </c>
@@ -16952,7 +16955,7 @@
       <c r="X111" s="31"/>
     </row>
     <row r="112" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A112" s="79"/>
+      <c r="A112" s="100"/>
       <c r="B112" s="5" t="s">
         <v>119</v>
       </c>
@@ -16980,7 +16983,7 @@
       <c r="X112" s="31"/>
     </row>
     <row r="113" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A113" s="79"/>
+      <c r="A113" s="100"/>
       <c r="B113" s="5" t="s">
         <v>120</v>
       </c>
@@ -17008,7 +17011,7 @@
       <c r="X113" s="31"/>
     </row>
     <row r="114" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A114" s="79"/>
+      <c r="A114" s="100"/>
       <c r="B114" s="5" t="s">
         <v>121</v>
       </c>
@@ -17036,7 +17039,7 @@
       <c r="X114" s="31"/>
     </row>
     <row r="115" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A115" s="79"/>
+      <c r="A115" s="100"/>
       <c r="B115" s="5" t="s">
         <v>122</v>
       </c>
@@ -17064,7 +17067,7 @@
       <c r="X115" s="31"/>
     </row>
     <row r="116" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A116" s="79"/>
+      <c r="A116" s="100"/>
       <c r="B116" s="5" t="s">
         <v>205</v>
       </c>
@@ -17092,7 +17095,7 @@
       <c r="X116" s="31"/>
     </row>
     <row r="117" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A117" s="79"/>
+      <c r="A117" s="100"/>
       <c r="B117" s="5" t="s">
         <v>124</v>
       </c>
@@ -17120,7 +17123,7 @@
       <c r="X117" s="31"/>
     </row>
     <row r="118" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A118" s="79"/>
+      <c r="A118" s="100"/>
       <c r="B118" s="5" t="s">
         <v>125</v>
       </c>
@@ -17192,7 +17195,7 @@
       </c>
     </row>
     <row r="119" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A119" s="79"/>
+      <c r="A119" s="100"/>
       <c r="B119" s="6" t="s">
         <v>126</v>
       </c>
@@ -17220,7 +17223,7 @@
       <c r="X119" s="31"/>
     </row>
     <row r="120" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A120" s="79"/>
+      <c r="A120" s="100"/>
       <c r="B120" s="5" t="s">
         <v>127</v>
       </c>
@@ -17292,7 +17295,7 @@
       </c>
     </row>
     <row r="121" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A121" s="79"/>
+      <c r="A121" s="100"/>
       <c r="B121" s="5" t="s">
         <v>128</v>
       </c>
@@ -17364,7 +17367,7 @@
       </c>
     </row>
     <row r="122" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A122" s="79"/>
+      <c r="A122" s="100"/>
       <c r="B122" s="5" t="s">
         <v>129</v>
       </c>
@@ -17392,7 +17395,7 @@
       <c r="X122" s="31"/>
     </row>
     <row r="123" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A123" s="79"/>
+      <c r="A123" s="100"/>
       <c r="B123" s="7" t="s">
         <v>206</v>
       </c>
@@ -17420,7 +17423,7 @@
       <c r="X123" s="31"/>
     </row>
     <row r="124" spans="1:24" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A124" s="80"/>
+      <c r="A124" s="101"/>
       <c r="B124" s="5" t="s">
         <v>131</v>
       </c>
@@ -17522,42 +17525,42 @@
     <row r="1" spans="1:123" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="102" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="85" t="s">
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="88" t="s">
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="109" t="s">
         <v>166</v>
       </c>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="92"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="111"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="113"/>
       <c r="AG1" s="36"/>
       <c r="AH1" s="36"/>
       <c r="AI1" s="36"/>
@@ -18018,7 +18021,7 @@
       </c>
     </row>
     <row r="3" spans="1:123" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="104" t="s">
         <v>177</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -18357,7 +18360,7 @@
       </c>
     </row>
     <row r="4" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="84"/>
+      <c r="A4" s="105"/>
       <c r="B4" s="19" t="s">
         <v>136</v>
       </c>
@@ -18694,7 +18697,7 @@
       </c>
     </row>
     <row r="5" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="84"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="19" t="s">
         <v>137</v>
       </c>
@@ -19031,7 +19034,7 @@
       </c>
     </row>
     <row r="6" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="84"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="19" t="s">
         <v>138</v>
       </c>
@@ -19368,7 +19371,7 @@
       </c>
     </row>
     <row r="7" spans="1:123" s="21" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="84"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="19" t="s">
         <v>139</v>
       </c>
@@ -19705,7 +19708,7 @@
       </c>
     </row>
     <row r="8" spans="1:123" s="21" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="84"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="19" t="s">
         <v>140</v>
       </c>
@@ -20044,7 +20047,7 @@
       </c>
     </row>
     <row r="9" spans="1:123" s="21" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="84"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="19" t="s">
         <v>141</v>
       </c>
@@ -20383,7 +20386,7 @@
       </c>
     </row>
     <row r="10" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="84"/>
+      <c r="A10" s="105"/>
       <c r="B10" s="19" t="s">
         <v>142</v>
       </c>
@@ -20722,7 +20725,7 @@
       </c>
     </row>
     <row r="11" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="84"/>
+      <c r="A11" s="105"/>
       <c r="B11" s="19" t="s">
         <v>143</v>
       </c>
@@ -21061,7 +21064,7 @@
       </c>
     </row>
     <row r="12" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="84"/>
+      <c r="A12" s="105"/>
       <c r="B12" s="19" t="s">
         <v>145</v>
       </c>
@@ -21188,7 +21191,7 @@
       <c r="DS12" s="33"/>
     </row>
     <row r="13" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="84"/>
+      <c r="A13" s="105"/>
       <c r="B13" s="19" t="s">
         <v>146</v>
       </c>
@@ -21315,7 +21318,7 @@
       <c r="DS13" s="33"/>
     </row>
     <row r="14" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="84"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="19" t="s">
         <v>147</v>
       </c>
@@ -21442,7 +21445,7 @@
       <c r="DS14" s="33"/>
     </row>
     <row r="15" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="84"/>
+      <c r="A15" s="105"/>
       <c r="B15" s="19" t="s">
         <v>148</v>
       </c>
@@ -21569,7 +21572,7 @@
       <c r="DS15" s="33"/>
     </row>
     <row r="16" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="84"/>
+      <c r="A16" s="105"/>
       <c r="B16" s="19" t="s">
         <v>149</v>
       </c>
@@ -21696,7 +21699,7 @@
       <c r="DS16" s="33"/>
     </row>
     <row r="17" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="84"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="19" t="s">
         <v>150</v>
       </c>
@@ -21823,7 +21826,7 @@
       <c r="DS17" s="33"/>
     </row>
     <row r="18" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="84"/>
+      <c r="A18" s="105"/>
       <c r="B18" s="19" t="s">
         <v>151</v>
       </c>
@@ -22162,7 +22165,7 @@
       </c>
     </row>
     <row r="19" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="84"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="19" t="s">
         <v>152</v>
       </c>
@@ -22289,7 +22292,7 @@
       <c r="DS19" s="40"/>
     </row>
     <row r="20" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="84"/>
+      <c r="A20" s="105"/>
       <c r="B20" s="19" t="s">
         <v>153</v>
       </c>
@@ -22628,7 +22631,7 @@
       </c>
     </row>
     <row r="21" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="84"/>
+      <c r="A21" s="105"/>
       <c r="B21" s="19" t="s">
         <v>154</v>
       </c>
@@ -22967,7 +22970,7 @@
       </c>
     </row>
     <row r="22" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="84"/>
+      <c r="A22" s="105"/>
       <c r="B22" s="19" t="s">
         <v>155</v>
       </c>
@@ -23306,7 +23309,7 @@
       </c>
     </row>
     <row r="23" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="84"/>
+      <c r="A23" s="105"/>
       <c r="B23" s="19" t="s">
         <v>156</v>
       </c>
@@ -23645,7 +23648,7 @@
       </c>
     </row>
     <row r="24" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="84"/>
+      <c r="A24" s="105"/>
       <c r="B24" s="19" t="s">
         <v>157</v>
       </c>
@@ -23976,7 +23979,7 @@
       <c r="DS24" s="33"/>
     </row>
     <row r="25" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="84"/>
+      <c r="A25" s="105"/>
       <c r="B25" s="19" t="s">
         <v>158</v>
       </c>
@@ -24103,7 +24106,7 @@
       <c r="DS25" s="34"/>
     </row>
     <row r="26" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="84"/>
+      <c r="A26" s="105"/>
       <c r="B26" s="19" t="s">
         <v>159</v>
       </c>
@@ -24230,7 +24233,7 @@
       <c r="DS26" s="34"/>
     </row>
     <row r="27" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="84"/>
+      <c r="A27" s="105"/>
       <c r="B27" s="19" t="s">
         <v>160</v>
       </c>
@@ -24357,7 +24360,7 @@
       <c r="DS27" s="34"/>
     </row>
     <row r="28" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="84"/>
+      <c r="A28" s="105"/>
       <c r="B28" s="19" t="s">
         <v>208</v>
       </c>
@@ -24536,7 +24539,7 @@
       <c r="DS28" s="33"/>
     </row>
     <row r="29" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="84"/>
+      <c r="A29" s="105"/>
       <c r="B29" s="19" t="s">
         <v>209</v>
       </c>
@@ -24715,7 +24718,7 @@
       <c r="DS29" s="33"/>
     </row>
     <row r="30" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="84"/>
+      <c r="A30" s="105"/>
       <c r="B30" s="19" t="s">
         <v>210</v>
       </c>
@@ -24894,7 +24897,7 @@
       <c r="DS30" s="33"/>
     </row>
     <row r="31" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="84"/>
+      <c r="A31" s="105"/>
       <c r="B31" s="19" t="s">
         <v>211</v>
       </c>
@@ -25073,7 +25076,7 @@
       <c r="DS31" s="33"/>
     </row>
     <row r="32" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="84"/>
+      <c r="A32" s="105"/>
       <c r="B32" s="19" t="s">
         <v>212</v>
       </c>
@@ -25252,7 +25255,7 @@
       <c r="DS32" s="33"/>
     </row>
     <row r="33" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="84"/>
+      <c r="A33" s="105"/>
       <c r="B33" s="19" t="s">
         <v>188</v>
       </c>
@@ -25587,7 +25590,7 @@
       </c>
     </row>
     <row r="34" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="84"/>
+      <c r="A34" s="105"/>
       <c r="B34" s="20" t="s">
         <v>189</v>
       </c>
@@ -25924,7 +25927,7 @@
       </c>
     </row>
     <row r="35" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="84"/>
+      <c r="A35" s="105"/>
       <c r="B35" s="20" t="s">
         <v>190</v>
       </c>
@@ -26263,7 +26266,7 @@
       </c>
     </row>
     <row r="36" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A36" s="84"/>
+      <c r="A36" s="105"/>
       <c r="B36" s="20" t="s">
         <v>191</v>
       </c>
@@ -26602,7 +26605,7 @@
       </c>
     </row>
     <row r="37" spans="1:123" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A37" s="84"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="20" t="s">
         <v>192</v>
       </c>
